--- a/leasebook.xlsx
+++ b/leasebook.xlsx
@@ -1,91 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TscAppProjects\leaseupdate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409BBE6B-B08C-4226-A8FC-F8BD519A2478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$H$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Tenant</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>TotalDays</t>
-  </si>
-  <si>
-    <t>TotalDaysLeft</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -104,23 +48,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,205 +423,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col width="8.90625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="15.26953125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10.90625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="10.1796875" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="11.26953125" bestFit="1" customWidth="1" style="2" min="6" max="6"/>
+    <col width="14.36328125" bestFit="1" customWidth="1" style="2" min="7" max="7"/>
+    <col width="11.36328125" bestFit="1" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tenant</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>PhoneNumber</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>StartDate</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EndDate</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>TotalDays</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>TotalDaysLeft</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>8059760613</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>7725153</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="n">
         <v>44348</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="n">
         <v>44713</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
+      <c r="F2">
+        <f>DATEDIF(D2,E2,"D")</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f>E2-TODAY()</f>
+        <v/>
+      </c>
+      <c r="H2">
+        <f>IF(TODAY()&gt;E2,"Rent Expired","Active")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>8044489389</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>9360502</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="n">
         <v>44563</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="n">
         <v>44928</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+      <c r="F3">
+        <f>DATEDIF(D3,E3,"D")</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <f>E3-TODAY()</f>
+        <v/>
+      </c>
+      <c r="H3">
+        <f>IF(TODAY()&gt;E3,"Rent Expired","Active")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>8041068051</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>9720378</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="n">
         <v>44564</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="n">
         <v>44929</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
+      <c r="F4">
+        <f>DATEDIF(D4,E4,"D")</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>E4-TODAY()</f>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>IF(TODAY()&gt;E4,"Rent Expired","Active")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>8062206990</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>5582842</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="n">
         <v>44774</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="n">
         <v>45108</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
+      <c r="F5">
+        <f>DATEDIF(D5,E5,"D")</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>E5-TODAY()</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>IF(TODAY()&gt;E5,"Rent Expired","Active")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>8058051769</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>6697467</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="n">
         <v>44594</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="n">
         <v>44959</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
+      <c r="F6">
+        <f>DATEDIF(D6,E6,"D")</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>E6-TODAY()</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>IF(TODAY()&gt;E6,"Rent Expired","Active")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>8046149141</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>5552279</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="n">
         <v>44595</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="n">
         <v>44960</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
+      <c r="F7">
+        <f>DATEDIF(D7,E7,"D")</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>E7-TODAY()</f>
+        <v/>
+      </c>
+      <c r="H7">
+        <f>IF(TODAY()&gt;E7,"Rent Expired","Active")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>8047343090</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>7070230</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="n">
         <v>44621</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="n">
         <v>44986</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
+      <c r="F8">
+        <f>DATEDIF(D8,E8,"D")</f>
+        <v/>
+      </c>
+      <c r="G8">
+        <f>E8-TODAY()</f>
+        <v/>
+      </c>
+      <c r="H8">
+        <f>IF(TODAY()&gt;E8,"Rent Expired","Active")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>8040620996</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>6632266</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="n">
         <v>44622</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="n">
         <v>44987</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
+      <c r="F9">
+        <f>DATEDIF(D9,E9,"D")</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>E9-TODAY()</f>
+        <v/>
+      </c>
+      <c r="H9">
+        <f>IF(TODAY()&gt;E9,"Rent Expired","Active")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>